--- a/6_promwad2_step_by_step/Docs/Планы IPS.xlsx
+++ b/6_promwad2_step_by_step/Docs/Планы IPS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -85,7 +85,25 @@
     <t xml:space="preserve">Реализация возможности записи конфигурации через локальную сеть.           Ускорение загписи конфигурации через локальную сеть</t>
   </si>
   <si>
-    <t xml:space="preserve">Написать новый код для подключения номеронабирателя на плате клавиатуры</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Написать новый код для п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">одключения номеронабирателя на плате клавиатуры</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1-3</t>
@@ -97,40 +115,49 @@
     <t xml:space="preserve">Запуск режима Телефон</t>
   </si>
   <si>
+    <t xml:space="preserve">Вызывается любая станция, принять вызов можно только на станции с номеронабирателем</t>
+  </si>
+  <si>
     <t xml:space="preserve">Запуск режима Групповой вызов</t>
   </si>
   <si>
-    <t xml:space="preserve">Некорректно работает конфигуратор (неправильно формирует адреса в каких-то случаях</t>
+    <t xml:space="preserve">Группы работают. При конфигурировании прописывать вначале сразу после IP</t>
   </si>
   <si>
     <t xml:space="preserve">Запуск Ватчдога</t>
   </si>
   <si>
-    <t xml:space="preserve">Сохранение речевых пакетов пакетов на сервере в базе данных </t>
+    <t xml:space="preserve">6 пультов были оставлены в режиме Групповой связи на 15 часов.  Один из пультов завис. Необходим Ватчдог для автоматического перезапуска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Циркуляр — индицируется дуплекс если он стоит раньше симплекса в номере станции. Дуплекс — при приеме индицируется симплекс если кнопка стоит раньше в конфигурации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптация кода для SL1 с доработкой конфигуратора с включением в него SL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDKV — создание архива. Сохранение речевых пакетов пакетов на сервере в базе данных </t>
   </si>
   <si>
     <t xml:space="preserve">Доработка программы для экранчика — отображение информации об архиве</t>
   </si>
   <si>
-    <t xml:space="preserve">Адаптация кода для SL1 с доработкой конфигуратора с включением в него SL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возможность воспроизведения сообщений из архивной базы данных</t>
+    <t xml:space="preserve">Возможность воспроизведения сообщений из архивной базы данных на любой станции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-10</t>
   </si>
   <si>
     <t xml:space="preserve">Сборка конфигуратора под MS Windows</t>
   </si>
   <si>
-    <t xml:space="preserve">Баг — индицируется при  дуплексе — мограет симплекс если кнопка стоит раньше в конфигурации</t>
-  </si>
-  <si>
     <t xml:space="preserve">Добиться работы шифрования — дешифрования пакетов</t>
   </si>
   <si>
     <t xml:space="preserve">Реализация возможности записи прошивки через локальную сеть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-10</t>
   </si>
 </sst>
 </file>
@@ -140,11 +167,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,12 +194,21 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,6 +221,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,28 +344,36 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -407,10 +453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,10 +469,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="27.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -437,16 +482,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="AMJ2" s="0"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -499,8 +550,6 @@
       <c r="H5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -527,8 +576,6 @@
       <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -543,19 +590,20 @@
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="7" customFormat="true" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
@@ -568,13 +616,16 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -583,140 +634,173 @@
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19" t="n">
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="7" customFormat="true" ht="28.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="E13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="19" t="n">
-        <v>20</v>
-      </c>
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="19" t="n">
+      <c r="B15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="19" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="19" t="n">
-        <v>10</v>
-      </c>
-    </row>
     <row r="18" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="A18" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/6_promwad2_step_by_step/Docs/Планы IPS.xlsx
+++ b/6_promwad2_step_by_step/Docs/Планы IPS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -112,16 +112,22 @@
     <t xml:space="preserve">Кнопкам присвоил номера 50 — 62</t>
   </si>
   <si>
+    <t xml:space="preserve">Запуск режима Групповой вызов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группы работают. При конфигурировании прописывать вначале сразу после IP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Запуск режима Телефон</t>
   </si>
   <si>
-    <t xml:space="preserve">Вызывается любая станция, принять вызов можно только на станции с номеронабирателем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запуск режима Групповой вызов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группы работают. При конфигурировании прописывать вначале сразу после IP</t>
+    <t xml:space="preserve">Реализация возможности приема телефонного вызова любым пультом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В конфигурации пульта нужно прописать *   и  #  Реализована корректная индикация телефонного вызова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подключение номеронабирателя к  UPV SC2</t>
   </si>
   <si>
     <t xml:space="preserve">Запуск Ватчдога</t>
@@ -279,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +367,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,12 +378,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -453,13 +463,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:AA186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="74.04"/>
@@ -468,7 +478,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="61.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="27.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="27.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,6 +496,25 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -498,6 +527,25 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -512,6 +560,25 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -526,6 +593,25 @@
       <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -550,6 +636,25 @@
       <c r="H5" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -576,6 +681,25 @@
       <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -590,6 +714,25 @@
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -602,6 +745,25 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
@@ -620,6 +782,25 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
@@ -640,6 +821,25 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="n">
@@ -648,7 +848,7 @@
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="14" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -660,6 +860,25 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="n">
@@ -668,123 +887,306 @@
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="C16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="19" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="C18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="n">
@@ -793,14 +1195,726 @@
       <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="C21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
+      <c r="A22" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
